--- a/t1_confection/A1_Outputs/A-O_Parametrization_Natural_COMPLETED.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Parametrization_Natural_COMPLETED.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="342">
   <si>
     <t>Tech.Type</t>
   </si>
@@ -866,9 +866,6 @@
     <t>Interpolate to stated end value from projection parameter</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Ask RDM folder</t>
   </si>
   <si>
@@ -9112,7 +9109,7 @@
         <v>234.55</v>
       </c>
       <c r="AP22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -9490,7 +9487,7 @@
         <v>8.16</v>
       </c>
       <c r="AP25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -9878,7 +9875,7 @@
         <v>4.2731</v>
       </c>
       <c r="AP33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -13032,54 +13029,6 @@
       <c r="Y70">
         <v>0.8257</v>
       </c>
-      <c r="Z70">
-        <v>0.8257</v>
-      </c>
-      <c r="AA70">
-        <v>0.8257</v>
-      </c>
-      <c r="AB70">
-        <v>0.8257</v>
-      </c>
-      <c r="AC70">
-        <v>0.8257</v>
-      </c>
-      <c r="AD70">
-        <v>0.8257</v>
-      </c>
-      <c r="AE70">
-        <v>0.8257</v>
-      </c>
-      <c r="AF70">
-        <v>0.8257</v>
-      </c>
-      <c r="AG70">
-        <v>0.8257</v>
-      </c>
-      <c r="AH70">
-        <v>0.8257</v>
-      </c>
-      <c r="AI70">
-        <v>0.8257</v>
-      </c>
-      <c r="AJ70">
-        <v>0.8257</v>
-      </c>
-      <c r="AK70">
-        <v>0.8257</v>
-      </c>
-      <c r="AL70">
-        <v>0.8257</v>
-      </c>
-      <c r="AM70">
-        <v>0.8257</v>
-      </c>
-      <c r="AN70">
-        <v>0.8257</v>
-      </c>
-      <c r="AO70">
-        <v>0.8257</v>
-      </c>
     </row>
     <row r="71" spans="1:41">
       <c r="A71">
@@ -14063,66 +14012,6 @@
       <c r="U80">
         <v>0.5044999999999999</v>
       </c>
-      <c r="V80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="W80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="X80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="Y80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="Z80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AA80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AD80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AE80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AF80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AG80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AH80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AI80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AJ80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AK80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AL80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AM80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AN80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AO80">
-        <v>0.5044999999999999</v>
-      </c>
     </row>
     <row r="81" spans="1:42">
       <c r="A81">
@@ -14374,7 +14263,7 @@
         <v>827.7034</v>
       </c>
       <c r="AP82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:42">
@@ -14502,7 +14391,7 @@
         <v>36.3964</v>
       </c>
       <c r="AP83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:42">
@@ -15423,7 +15312,7 @@
         <v>624.0717</v>
       </c>
       <c r="AP92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:42">
@@ -15551,7 +15440,7 @@
         <v>22.3789</v>
       </c>
       <c r="AP93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:42">
@@ -16373,7 +16262,7 @@
         <v>781.4673</v>
       </c>
       <c r="AP102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:42">
@@ -16501,7 +16390,7 @@
         <v>25.8541</v>
       </c>
       <c r="AP103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:42">
@@ -16938,9 +16827,6 @@
       <c r="E109" t="s">
         <v>267</v>
       </c>
-      <c r="G109" t="s">
-        <v>281</v>
-      </c>
       <c r="H109">
         <v>0</v>
       </c>
@@ -17320,7 +17206,7 @@
         <v>1036.4565</v>
       </c>
       <c r="AP112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:42">
@@ -17448,7 +17334,7 @@
         <v>42.1143</v>
       </c>
       <c r="AP113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:42">
@@ -17885,9 +17771,6 @@
       <c r="E119" t="s">
         <v>267</v>
       </c>
-      <c r="G119" t="s">
-        <v>281</v>
-      </c>
       <c r="H119">
         <v>0</v>
       </c>
@@ -18826,9 +18709,6 @@
       <c r="E129" t="s">
         <v>267</v>
       </c>
-      <c r="G129" t="s">
-        <v>281</v>
-      </c>
       <c r="H129">
         <v>0</v>
       </c>
@@ -18958,7 +18838,7 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:42">
@@ -19770,9 +19650,6 @@
       <c r="E139" t="s">
         <v>267</v>
       </c>
-      <c r="G139" t="s">
-        <v>281</v>
-      </c>
       <c r="H139">
         <v>0</v>
       </c>
@@ -20710,9 +20587,6 @@
       </c>
       <c r="E149" t="s">
         <v>267</v>
-      </c>
-      <c r="G149" t="s">
-        <v>281</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -21694,7 +21568,7 @@
         <v>29.24</v>
       </c>
       <c r="AP2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -22069,7 +21943,7 @@
         <v>29.24</v>
       </c>
       <c r="AP5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -22444,7 +22318,7 @@
         <v>406.038</v>
       </c>
       <c r="AP8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -22819,7 +22693,7 @@
         <v>37.5206</v>
       </c>
       <c r="AP11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -24394,7 +24268,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -24417,7 +24291,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -24440,7 +24314,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -24463,7 +24337,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -24486,7 +24360,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -24509,7 +24383,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -24532,7 +24406,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -24555,7 +24429,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -24578,7 +24452,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -24601,7 +24475,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -24624,7 +24498,7 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -24647,7 +24521,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -24670,7 +24544,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -24693,7 +24567,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -24716,7 +24590,7 @@
         <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -24739,7 +24613,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -24762,7 +24636,7 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -24785,7 +24659,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -24808,7 +24682,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -24925,7 +24799,7 @@
         <v>160.0337</v>
       </c>
       <c r="AP20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -24936,7 +24810,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -25053,7 +24927,7 @@
         <v>3.2007</v>
       </c>
       <c r="AP21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -25064,7 +24938,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -25186,7 +25060,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -25209,7 +25083,7 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -25232,7 +25106,7 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -25255,7 +25129,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -25278,7 +25152,7 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -25301,7 +25175,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -25324,7 +25198,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -25441,7 +25315,7 @@
         <v>35.0753</v>
       </c>
       <c r="AP29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -25452,7 +25326,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -25569,7 +25443,7 @@
         <v>0.7015</v>
       </c>
       <c r="AP30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -25580,7 +25454,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -25702,7 +25576,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -25725,7 +25599,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -25748,7 +25622,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -25771,7 +25645,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -25794,7 +25668,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -25817,7 +25691,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -25840,7 +25714,7 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -25863,7 +25737,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -25886,7 +25760,7 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -25909,7 +25783,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -25932,7 +25806,7 @@
         <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -25955,7 +25829,7 @@
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -25978,7 +25852,7 @@
         <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -26001,7 +25875,7 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -26024,7 +25898,7 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -26047,7 +25921,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -26070,7 +25944,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -26093,7 +25967,7 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -26116,7 +25990,7 @@
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -26233,7 +26107,7 @@
         <v>35.0753</v>
       </c>
       <c r="AP50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -26244,7 +26118,7 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -26361,7 +26235,7 @@
         <v>0.7015</v>
       </c>
       <c r="AP51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:42">
@@ -26372,7 +26246,7 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -26516,7 +26390,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>246</v>
@@ -26647,10 +26521,10 @@
         <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
         <v>278</v>
@@ -26775,10 +26649,10 @@
         <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s">
         <v>279</v>
@@ -26903,10 +26777,10 @@
         <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" t="s">
         <v>279</v>
@@ -27071,10 +26945,10 @@
         <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" t="s">
         <v>278</v>
@@ -27199,10 +27073,10 @@
         <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H8" t="s">
         <v>279</v>
@@ -27327,10 +27201,10 @@
         <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H9" t="s">
         <v>279</v>
@@ -27495,10 +27369,10 @@
         <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H12" t="s">
         <v>278</v>
@@ -27623,10 +27497,10 @@
         <v>261</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s">
         <v>279</v>
@@ -27751,10 +27625,10 @@
         <v>263</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -27817,13 +27691,13 @@
         <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -27945,10 +27819,10 @@
         <v>261</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
         <v>279</v>
@@ -28073,10 +27947,10 @@
         <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -28139,10 +28013,10 @@
         <v>260</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H22" t="s">
         <v>278</v>
@@ -28267,10 +28141,10 @@
         <v>261</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
         <v>279</v>
@@ -28395,10 +28269,10 @@
         <v>263</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -28461,13 +28335,13 @@
         <v>260</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -28589,10 +28463,10 @@
         <v>261</v>
       </c>
       <c r="F28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
         <v>279</v>
@@ -28717,10 +28591,10 @@
         <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -28783,10 +28657,10 @@
         <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
         <v>278</v>
@@ -28911,10 +28785,10 @@
         <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H33" t="s">
         <v>279</v>
@@ -29039,10 +28913,10 @@
         <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H34" t="s">
         <v>279</v>
@@ -29207,13 +29081,13 @@
         <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -29335,10 +29209,10 @@
         <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H38" t="s">
         <v>279</v>
@@ -29463,10 +29337,10 @@
         <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -29529,13 +29403,13 @@
         <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -29657,10 +29531,10 @@
         <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H43" t="s">
         <v>279</v>
@@ -29785,10 +29659,10 @@
         <v>263</v>
       </c>
       <c r="F44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -29851,10 +29725,10 @@
         <v>260</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H47" t="s">
         <v>278</v>
@@ -29979,10 +29853,10 @@
         <v>261</v>
       </c>
       <c r="F48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s">
         <v>279</v>
@@ -30107,10 +29981,10 @@
         <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H49" t="s">
         <v>279</v>
@@ -30275,10 +30149,10 @@
         <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H52" t="s">
         <v>278</v>
@@ -30403,10 +30277,10 @@
         <v>261</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>279</v>
@@ -30531,10 +30405,10 @@
         <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -30597,10 +30471,10 @@
         <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H57" t="s">
         <v>278</v>
@@ -30708,7 +30582,7 @@
         <v>106586.0574</v>
       </c>
       <c r="AQ57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -30728,10 +30602,10 @@
         <v>261</v>
       </c>
       <c r="F58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H58" t="s">
         <v>279</v>
@@ -30856,10 +30730,10 @@
         <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H59" t="s">
         <v>279</v>
@@ -31024,10 +30898,10 @@
         <v>260</v>
       </c>
       <c r="F62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H62" t="s">
         <v>278</v>
@@ -31152,10 +31026,10 @@
         <v>261</v>
       </c>
       <c r="F63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H63" t="s">
         <v>279</v>
@@ -31280,10 +31154,10 @@
         <v>263</v>
       </c>
       <c r="F64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -31346,13 +31220,13 @@
         <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -31474,10 +31348,10 @@
         <v>261</v>
       </c>
       <c r="F68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s">
         <v>279</v>
@@ -31602,10 +31476,10 @@
         <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -31668,13 +31542,13 @@
         <v>260</v>
       </c>
       <c r="F72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -31796,10 +31670,10 @@
         <v>261</v>
       </c>
       <c r="F73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H73" t="s">
         <v>279</v>
@@ -31924,10 +31798,10 @@
         <v>263</v>
       </c>
       <c r="F74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -31990,13 +31864,13 @@
         <v>260</v>
       </c>
       <c r="F77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -32118,10 +31992,10 @@
         <v>261</v>
       </c>
       <c r="F78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H78" t="s">
         <v>279</v>
@@ -32246,10 +32120,10 @@
         <v>263</v>
       </c>
       <c r="F79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -32312,10 +32186,10 @@
         <v>260</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H82" t="s">
         <v>278</v>
@@ -32423,7 +32297,7 @@
         <v>27594.2966</v>
       </c>
       <c r="AQ82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:43">
@@ -32443,10 +32317,10 @@
         <v>261</v>
       </c>
       <c r="F83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H83" t="s">
         <v>279</v>
@@ -32571,10 +32445,10 @@
         <v>263</v>
       </c>
       <c r="F84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H84" t="s">
         <v>279</v>
@@ -32739,10 +32613,10 @@
         <v>260</v>
       </c>
       <c r="F87" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H87" t="s">
         <v>278</v>
@@ -32867,10 +32741,10 @@
         <v>261</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H88" t="s">
         <v>279</v>
@@ -32995,10 +32869,10 @@
         <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -33061,13 +32935,13 @@
         <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -33189,10 +33063,10 @@
         <v>261</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s">
         <v>279</v>
@@ -33317,10 +33191,10 @@
         <v>263</v>
       </c>
       <c r="F94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -33383,13 +33257,13 @@
         <v>260</v>
       </c>
       <c r="F97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -33511,10 +33385,10 @@
         <v>261</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H98" t="s">
         <v>279</v>
@@ -33639,10 +33513,10 @@
         <v>263</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -33705,13 +33579,13 @@
         <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -33816,7 +33690,7 @@
         <v>29091.2202</v>
       </c>
       <c r="AQ102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:43">
@@ -33836,10 +33710,10 @@
         <v>261</v>
       </c>
       <c r="F103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s">
         <v>279</v>
@@ -33964,10 +33838,10 @@
         <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -34030,10 +33904,10 @@
         <v>260</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H107" t="s">
         <v>278</v>
@@ -34158,10 +34032,10 @@
         <v>261</v>
       </c>
       <c r="F108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H108" t="s">
         <v>279</v>
@@ -34286,10 +34160,10 @@
         <v>263</v>
       </c>
       <c r="F109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G109" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H109" t="s">
         <v>279</v>
@@ -34454,10 +34328,10 @@
         <v>260</v>
       </c>
       <c r="F112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H112" t="s">
         <v>278</v>
@@ -34582,10 +34456,10 @@
         <v>261</v>
       </c>
       <c r="F113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H113" t="s">
         <v>279</v>
@@ -34710,10 +34584,10 @@
         <v>263</v>
       </c>
       <c r="F114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H114" t="s">
         <v>279</v>
@@ -34878,13 +34752,13 @@
         <v>260</v>
       </c>
       <c r="F117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -35006,10 +34880,10 @@
         <v>261</v>
       </c>
       <c r="F118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H118" t="s">
         <v>279</v>
@@ -35134,10 +35008,10 @@
         <v>263</v>
       </c>
       <c r="F119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -35200,13 +35074,13 @@
         <v>260</v>
       </c>
       <c r="F122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -35328,10 +35202,10 @@
         <v>261</v>
       </c>
       <c r="F123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H123" t="s">
         <v>279</v>
@@ -35456,10 +35330,10 @@
         <v>263</v>
       </c>
       <c r="F124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -35522,13 +35396,13 @@
         <v>260</v>
       </c>
       <c r="F127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -35650,10 +35524,10 @@
         <v>261</v>
       </c>
       <c r="F128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s">
         <v>279</v>
@@ -35778,10 +35652,10 @@
         <v>263</v>
       </c>
       <c r="F129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -35844,7 +35718,7 @@
         <v>260</v>
       </c>
       <c r="G132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H132" t="s">
         <v>277</v>
@@ -35870,10 +35744,10 @@
         <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H133" t="s">
         <v>277</v>
@@ -35899,10 +35773,10 @@
         <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G134" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H134" t="s">
         <v>277</v>
@@ -35968,7 +35842,7 @@
         <v>260</v>
       </c>
       <c r="G137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H137" t="s">
         <v>277</v>
@@ -35994,10 +35868,10 @@
         <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H138" t="s">
         <v>277</v>
@@ -36023,10 +35897,10 @@
         <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G139" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H139" t="s">
         <v>277</v>
@@ -36092,7 +35966,7 @@
         <v>260</v>
       </c>
       <c r="G142" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H142" t="s">
         <v>277</v>
@@ -36118,10 +35992,10 @@
         <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H143" t="s">
         <v>278</v>
@@ -36229,7 +36103,7 @@
         <v>20.06</v>
       </c>
       <c r="AQ143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:43">
@@ -36249,10 +36123,10 @@
         <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G144" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H144" t="s">
         <v>277</v>
@@ -36318,10 +36192,10 @@
         <v>260</v>
       </c>
       <c r="F147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G147" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H147" t="s">
         <v>278</v>
@@ -36446,10 +36320,10 @@
         <v>261</v>
       </c>
       <c r="F148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H148" t="s">
         <v>279</v>
@@ -36574,10 +36448,10 @@
         <v>263</v>
       </c>
       <c r="F149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G149" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H149" t="s">
         <v>279</v>
@@ -36742,10 +36616,10 @@
         <v>260</v>
       </c>
       <c r="F152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H152" t="s">
         <v>278</v>
@@ -36870,10 +36744,10 @@
         <v>261</v>
       </c>
       <c r="F153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H153" t="s">
         <v>279</v>
@@ -36998,10 +36872,10 @@
         <v>263</v>
       </c>
       <c r="F154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -37064,13 +36938,13 @@
         <v>260</v>
       </c>
       <c r="F157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -37192,10 +37066,10 @@
         <v>261</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H158" t="s">
         <v>279</v>
@@ -37320,10 +37194,10 @@
         <v>263</v>
       </c>
       <c r="F159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G159" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -37386,13 +37260,13 @@
         <v>260</v>
       </c>
       <c r="F162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H162" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -37514,10 +37388,10 @@
         <v>261</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H163" t="s">
         <v>279</v>
@@ -37642,10 +37516,10 @@
         <v>263</v>
       </c>
       <c r="F164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G164" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -37708,10 +37582,10 @@
         <v>260</v>
       </c>
       <c r="F167" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H167" t="s">
         <v>278</v>
@@ -37836,10 +37710,10 @@
         <v>261</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H168" t="s">
         <v>279</v>
@@ -37964,10 +37838,10 @@
         <v>263</v>
       </c>
       <c r="F169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G169" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -38030,10 +37904,10 @@
         <v>260</v>
       </c>
       <c r="F172" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G172" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H172" t="s">
         <v>278</v>
@@ -38158,10 +38032,10 @@
         <v>261</v>
       </c>
       <c r="F173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H173" t="s">
         <v>279</v>
@@ -38286,10 +38160,10 @@
         <v>263</v>
       </c>
       <c r="F174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G174" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H174" t="s">
         <v>279</v>
@@ -38454,10 +38328,10 @@
         <v>260</v>
       </c>
       <c r="F177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G177" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H177" t="s">
         <v>278</v>
@@ -38582,10 +38456,10 @@
         <v>261</v>
       </c>
       <c r="F178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H178" t="s">
         <v>279</v>
@@ -38710,10 +38584,10 @@
         <v>263</v>
       </c>
       <c r="F179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G179" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H179" t="s">
         <v>279</v>
@@ -38878,10 +38752,10 @@
         <v>260</v>
       </c>
       <c r="F182" t="s">
+        <v>317</v>
+      </c>
+      <c r="G182" t="s">
         <v>318</v>
-      </c>
-      <c r="G182" t="s">
-        <v>319</v>
       </c>
       <c r="H182" t="s">
         <v>278</v>
@@ -39006,10 +38880,10 @@
         <v>261</v>
       </c>
       <c r="F183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H183" t="s">
         <v>279</v>
@@ -39134,10 +39008,10 @@
         <v>263</v>
       </c>
       <c r="F184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G184" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -39200,13 +39074,13 @@
         <v>260</v>
       </c>
       <c r="F187" t="s">
+        <v>317</v>
+      </c>
+      <c r="G187" t="s">
         <v>318</v>
       </c>
-      <c r="G187" t="s">
-        <v>319</v>
-      </c>
       <c r="H187" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -39311,7 +39185,7 @@
         <v>27197.8021</v>
       </c>
       <c r="AQ187" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:43">
@@ -39331,10 +39205,10 @@
         <v>261</v>
       </c>
       <c r="F188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H188" t="s">
         <v>279</v>
@@ -39459,10 +39333,10 @@
         <v>263</v>
       </c>
       <c r="F189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G189" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -39525,10 +39399,10 @@
         <v>260</v>
       </c>
       <c r="F192" t="s">
+        <v>317</v>
+      </c>
+      <c r="G192" t="s">
         <v>318</v>
-      </c>
-      <c r="G192" t="s">
-        <v>319</v>
       </c>
       <c r="H192" t="s">
         <v>278</v>
@@ -39653,10 +39527,10 @@
         <v>261</v>
       </c>
       <c r="F193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H193" t="s">
         <v>279</v>
@@ -39781,10 +39655,10 @@
         <v>263</v>
       </c>
       <c r="F194" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G194" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -39847,10 +39721,10 @@
         <v>260</v>
       </c>
       <c r="F197" t="s">
+        <v>317</v>
+      </c>
+      <c r="G197" t="s">
         <v>318</v>
-      </c>
-      <c r="G197" t="s">
-        <v>319</v>
       </c>
       <c r="H197" t="s">
         <v>278</v>
@@ -39975,10 +39849,10 @@
         <v>261</v>
       </c>
       <c r="F198" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G198" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H198" t="s">
         <v>279</v>
@@ -40103,10 +39977,10 @@
         <v>263</v>
       </c>
       <c r="F199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G199" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -40310,7 +40184,7 @@
         <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -40333,7 +40207,7 @@
         <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -40356,7 +40230,7 @@
         <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -40379,7 +40253,7 @@
         <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -40402,7 +40276,7 @@
         <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -40425,7 +40299,7 @@
         <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -40448,7 +40322,7 @@
         <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -40471,7 +40345,7 @@
         <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -40494,7 +40368,7 @@
         <v>264</v>
       </c>
       <c r="G10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -40517,7 +40391,7 @@
         <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -40540,7 +40414,7 @@
         <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -40563,7 +40437,7 @@
         <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -40586,7 +40460,7 @@
         <v>264</v>
       </c>
       <c r="G14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -40609,7 +40483,7 @@
         <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -40632,7 +40506,7 @@
         <v>264</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -40655,7 +40529,7 @@
         <v>266</v>
       </c>
       <c r="G17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -40678,7 +40552,7 @@
         <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -40701,7 +40575,7 @@
         <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -40722,7 +40596,7 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -40731,7 +40605,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -40844,22 +40718,22 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
         <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G2" t="s">
         <v>279</v>
@@ -40966,22 +40840,22 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
         <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" t="s">
         <v>279</v>
@@ -41088,22 +40962,22 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
         <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G4" t="s">
         <v>279</v>
@@ -41210,22 +41084,22 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
         <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G5" t="s">
         <v>279</v>
@@ -41332,22 +41206,22 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
         <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G6" t="s">
         <v>279</v>
@@ -41454,22 +41328,22 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" t="s">
         <v>261</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G7" t="s">
         <v>279</v>
@@ -41576,19 +41450,19 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" t="s">
         <v>338</v>
-      </c>
-      <c r="E8" t="s">
-        <v>339</v>
       </c>
       <c r="G8" t="s">
         <v>278</v>
@@ -41695,13 +41569,13 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" t="s">
         <v>264</v>
@@ -41811,13 +41685,13 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E10" t="s">
         <v>266</v>
@@ -41927,16 +41801,16 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G11" t="s">
         <v>279</v>
@@ -42043,22 +41917,22 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
       </c>
       <c r="C12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
         <v>336</v>
-      </c>
-      <c r="D12" t="s">
-        <v>337</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" t="s">
         <v>279</v>
@@ -42165,22 +42039,22 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
       <c r="C13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" t="s">
         <v>336</v>
-      </c>
-      <c r="D13" t="s">
-        <v>337</v>
       </c>
       <c r="E13" t="s">
         <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" t="s">
         <v>279</v>
@@ -42287,22 +42161,22 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
       </c>
       <c r="C14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="s">
         <v>336</v>
       </c>
-      <c r="D14" t="s">
-        <v>337</v>
-      </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G14" t="s">
         <v>279</v>
@@ -42409,22 +42283,22 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
         <v>125</v>
       </c>
       <c r="C15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" t="s">
         <v>336</v>
-      </c>
-      <c r="D15" t="s">
-        <v>337</v>
       </c>
       <c r="E15" t="s">
         <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G15" t="s">
         <v>279</v>
@@ -42531,22 +42405,22 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" t="s">
         <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G16" t="s">
         <v>279</v>
@@ -42653,22 +42527,22 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" t="s">
         <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G17" t="s">
         <v>279</v>
@@ -42775,22 +42649,22 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G18" t="s">
         <v>279</v>
@@ -42897,22 +42771,22 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E19" t="s">
         <v>264</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" t="s">
         <v>279</v>
@@ -43019,22 +42893,22 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" t="s">
         <v>264</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" t="s">
         <v>279</v>
@@ -43141,22 +43015,22 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" t="s">
         <v>279</v>
@@ -43263,22 +43137,22 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
         <v>279</v>
@@ -43385,22 +43259,22 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" t="s">
         <v>279</v>
@@ -43507,22 +43381,22 @@
     </row>
     <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" t="s">
         <v>279</v>
@@ -43629,22 +43503,22 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
         <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" t="s">
         <v>279</v>
@@ -43752,238 +43626,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362F32A9-6A59-4052-A28C-F86BC8F98799}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B64A2343-43F1-4C28-B2EB-4477780C53AB}"/>
 </file>